--- a/data files/growth_measurements_millimetre.xlsx
+++ b/data files/growth_measurements_millimetre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbert\Google Drive\PhD\THESIS\CH1\installation and demo script\data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbert\Google Drive\PhD\Experiments\20161130 Kinematic\1. Data and analysis\Analysis files\analysis using leafkin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB183D7-189C-4AF9-8CCC-D5F1D4C0BE2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA9A1C-C470-4099-8434-5D01EE294218}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{35BCA634-6754-C445-B089-259C469BB48B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{35BCA634-6754-C445-B089-259C469BB48B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
